--- a/df_list_20250304.xlsx
+++ b/df_list_20250304.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="260">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -493,16 +493,320 @@
   </si>
   <si>
     <t>2025년 합천군 보육정책위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>경기도_용인시처인구</t>
+  </si>
+  <si>
+    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+  </si>
+  <si>
+    <t>[공고]2024~2026년 민간제안 산업단지 공모사업</t>
+  </si>
+  <si>
+    <t>당진시 육아종합지원센터 건립 리모델링공사 설계용역 제안공모</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>경상도_성주군</t>
+  </si>
+  <si>
+    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>「성주 성산동 고분군 전시관 중장기 발전계획 수립 연구용역」 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>울진 유기농복합문화센터 건립사업 설계용역 제안공모 심사위원회 심사결과 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>유호지구. 고봉지구, 금곡지구 마을하수도정비사업 공법선정 심의위원 명단 및 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>전북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>둔남천 하천기본계획 재수립 및 실시설계용역 공법 선정을 위한 기술 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>(서대문구) 『북아현 과선교(도로교, 녹지교) 설치공사』 신기술·특허공법 선정 제안서 제출 안내 공고 - 분절형 PSC 거더(공장제작)</t>
+  </si>
+  <si>
+    <t>(서초구)신기술 특허공법 최종 선정결과 공고(원터2길 등 2개소 도로열선 설치)</t>
+  </si>
+  <si>
+    <t>2025년 난지수계 차집관로 준설공사 1차 공법선정결과 및 2차 서류 제출 안내</t>
+  </si>
+  <si>
+    <t>위례 A1-14BL 공공주택 건설사업 특정기술(CIP 배면 차수 치환그라우팅 공법) 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고(부산시 지방시대 지역균형발전 전략 연구: 4대특구 등 연계방안)</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
+  </si>
+  <si>
+    <t>제안서 정성적 평가 결과 공고[농업 농촌체험프로그램 범용 모델개발 연구용역]</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 공개모집 공고(2025년 대전광역시 공기업 등 조직진단 용역)</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>울산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
+  </si>
+  <si>
+    <t>제안서평가위원회 평가결과 공개 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고「자동식이섬유 분석기(섬유소 분석기) 구입」</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>전북고시공고</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>전남고시공고</t>
+  </si>
+  <si>
+    <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>『솔라시도 미래차 산업육성 전략 연구용역』 제안서 평가위원(후보자) 공개...2025-03-04</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 예비평가위원 공개모집 공고(경상북도 소나무재선충병 방제전략 수립 연구용역)</t>
+  </si>
+  <si>
+    <t>「2025년 군포시 초막골 유아숲체험원 교육운영 용역」 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>경기도_여주시</t>
+  </si>
+  <si>
+    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 마을공동체 주민제안 공모사업 선정...</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>경기도_평택시</t>
+  </si>
+  <si>
+    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
+  </si>
+  <si>
+    <t>2025년 사회혁신형 스마트팜 구축 제안사업자 모집 공고</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=2</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 평가결과 공개(2025년 5급 승진후보자 역량평가교육 운영 용역)</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>충청도_제천시</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>제4차 제천시 평생학습 중장기 발전계획 수립 연구용역 제안서 평가(정성적 평가) 결과 공고새글</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>「2025년 청주동물원 관련 유튜브 영상 제작 용역」 입찰 및 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=6</t>
+  </si>
+  <si>
+    <t>2025년 드론배송 상용화서비스 용역 제안서 평가위원회 평가위원(후보자)...</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>2025 천안 K-컬처박람회 전시장 조성 및 운영 용역 제안서 평가위원회...</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>충청도_청양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>「효제지구 자연재해위험개선지구 정비사업」공법선정을 위한 공법제안서 제출안...</t>
+  </si>
+  <si>
+    <t>2025년 민관협업 정책디자인 우리들의 군산 시민 제안 공모전 개최</t>
+  </si>
+  <si>
+    <t>A133</t>
+  </si>
+  <si>
+    <t>전라도_임실군</t>
+  </si>
+  <si>
+    <t>https://eminwon.imsil.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+  </si>
+  <si>
+    <t>임실군 성장관리계획 수립용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>임실공공하수처리시설 증설사업 하수처리공법 선정을 위한 제안서 평가 결과 ...</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>전라도_장수군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jangsu.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,04,05,03&amp;yyyy=2017&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>2025년 제1차 장수군 보육정책위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A136</t>
+  </si>
+  <si>
+    <t>전라도_광양시</t>
+  </si>
+  <si>
+    <t>https://gwangyang.go.kr/saeol/gosi.es?mid=a11005020000&amp;type_code=02,04</t>
+  </si>
+  <si>
+    <t>「광양시 하수도 GIS 정확도 개선사업」 제안서 평가위원회 결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=2</t>
+  </si>
+  <si>
+    <t>A151</t>
+  </si>
+  <si>
+    <t>전라도_완도군</t>
+  </si>
+  <si>
+    <t>https://www.wando.go.kr/wando/sub.cs?m=318&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「2025년 완도 방문의 해 치유버스킹 운영 대행 용역」제안서 평가위원(...새로운글</t>
+  </si>
+  <si>
+    <t>「구미대교(확장) 정비공사」공법선정위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>경상도_창원시</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>취소공고[『대산동읍(3단계) 하수관로 정비공사』 공법 선정을 위한 공법선정위원회 평가위원(후보자) 모집공고]</t>
+  </si>
+  <si>
+    <t>취소공고[『대산동읍(3단계) 하수관로 정비공사』신기술(특허) 공법 선정을 위한 기술제안서 제출안내 공고]</t>
+  </si>
+  <si>
+    <t>통영시 호두마을 소규모 공공하수처리장 공법 선정 기술제안서 제출안내 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -524,6 +828,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -554,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -564,6 +872,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1807,97 +2124,1826 @@
         <v>45720.54690972222</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45719.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45718.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45718.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45720.96737268518</v>
+      </c>
+    </row>
     <row r="143" ht="15.75" customHeight="1"/>
     <row r="144" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
@@ -2757,9 +4803,102 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C52"/>
+    <hyperlink r:id="rId2" ref="C53"/>
+    <hyperlink r:id="rId3" ref="C54"/>
+    <hyperlink r:id="rId4" ref="C55"/>
+    <hyperlink r:id="rId5" ref="C56"/>
+    <hyperlink r:id="rId6" ref="C57"/>
+    <hyperlink r:id="rId7" ref="C58"/>
+    <hyperlink r:id="rId8" ref="C59"/>
+    <hyperlink r:id="rId9" location="list/1" ref="C60"/>
+    <hyperlink r:id="rId10" location="list/1" ref="C61"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C62"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C63"/>
+    <hyperlink r:id="rId13" location="list/1" ref="C64"/>
+    <hyperlink r:id="rId14" location="list/1" ref="C65"/>
+    <hyperlink r:id="rId15" location="list/1" ref="C66"/>
+    <hyperlink r:id="rId16" ref="C67"/>
+    <hyperlink r:id="rId17" ref="C68"/>
+    <hyperlink r:id="rId18" ref="C69"/>
+    <hyperlink r:id="rId19" ref="C70"/>
+    <hyperlink r:id="rId20" ref="C71"/>
+    <hyperlink r:id="rId21" ref="C72"/>
+    <hyperlink r:id="rId22" ref="C73"/>
+    <hyperlink r:id="rId23" ref="C74"/>
+    <hyperlink r:id="rId24" ref="C75"/>
+    <hyperlink r:id="rId25" location="page=2" ref="C76"/>
+    <hyperlink r:id="rId26" ref="C77"/>
+    <hyperlink r:id="rId27" ref="C78"/>
+    <hyperlink r:id="rId28" ref="C79"/>
+    <hyperlink r:id="rId29" ref="C80"/>
+    <hyperlink r:id="rId30" ref="C81"/>
+    <hyperlink r:id="rId31" ref="C82"/>
+    <hyperlink r:id="rId32" ref="C83"/>
+    <hyperlink r:id="rId33" ref="C84"/>
+    <hyperlink r:id="rId34" ref="C85"/>
+    <hyperlink r:id="rId35" ref="C86"/>
+    <hyperlink r:id="rId36" ref="C87"/>
+    <hyperlink r:id="rId37" ref="C88"/>
+    <hyperlink r:id="rId38" ref="C89"/>
+    <hyperlink r:id="rId39" ref="C90"/>
+    <hyperlink r:id="rId40" ref="C91"/>
+    <hyperlink r:id="rId41" ref="C92"/>
+    <hyperlink r:id="rId42" ref="C93"/>
+    <hyperlink r:id="rId43" ref="C94"/>
+    <hyperlink r:id="rId44" ref="C95"/>
+    <hyperlink r:id="rId45" ref="C96"/>
+    <hyperlink r:id="rId46" ref="C97"/>
+    <hyperlink r:id="rId47" ref="C98"/>
+    <hyperlink r:id="rId48" ref="C99"/>
+    <hyperlink r:id="rId49" ref="C100"/>
+    <hyperlink r:id="rId50" ref="C101"/>
+    <hyperlink r:id="rId51" ref="C102"/>
+    <hyperlink r:id="rId52" ref="C103"/>
+    <hyperlink r:id="rId53" ref="C104"/>
+    <hyperlink r:id="rId54" ref="C105"/>
+    <hyperlink r:id="rId55" ref="C106"/>
+    <hyperlink r:id="rId56" ref="C107"/>
+    <hyperlink r:id="rId57" ref="C108"/>
+    <hyperlink r:id="rId58" ref="C109"/>
+    <hyperlink r:id="rId59" ref="C110"/>
+    <hyperlink r:id="rId60" ref="C111"/>
+    <hyperlink r:id="rId61" ref="C112"/>
+    <hyperlink r:id="rId62" ref="C113"/>
+    <hyperlink r:id="rId63" ref="C114"/>
+    <hyperlink r:id="rId64" ref="C115"/>
+    <hyperlink r:id="rId65" ref="C116"/>
+    <hyperlink r:id="rId66" ref="C117"/>
+    <hyperlink r:id="rId67" ref="C118"/>
+    <hyperlink r:id="rId68" ref="C119"/>
+    <hyperlink r:id="rId69" ref="C120"/>
+    <hyperlink r:id="rId70" ref="C121"/>
+    <hyperlink r:id="rId71" ref="C122"/>
+    <hyperlink r:id="rId72" ref="C123"/>
+    <hyperlink r:id="rId73" ref="C124"/>
+    <hyperlink r:id="rId74" ref="C125"/>
+    <hyperlink r:id="rId75" ref="C126"/>
+    <hyperlink r:id="rId76" ref="C127"/>
+    <hyperlink r:id="rId77" ref="C128"/>
+    <hyperlink r:id="rId78" ref="C129"/>
+    <hyperlink r:id="rId79" ref="C130"/>
+    <hyperlink r:id="rId80" ref="C131"/>
+    <hyperlink r:id="rId81" ref="C132"/>
+    <hyperlink r:id="rId82" ref="C133"/>
+    <hyperlink r:id="rId83" ref="C134"/>
+    <hyperlink r:id="rId84" ref="C135"/>
+    <hyperlink r:id="rId85" ref="C136"/>
+    <hyperlink r:id="rId86" ref="C137"/>
+    <hyperlink r:id="rId87" ref="C138"/>
+    <hyperlink r:id="rId88" ref="C139"/>
+    <hyperlink r:id="rId89" ref="C140"/>
+    <hyperlink r:id="rId90" ref="C141"/>
+    <hyperlink r:id="rId91" ref="C142"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId92"/>
 </worksheet>
 </file>